--- a/game_data_v1.xlsx
+++ b/game_data_v1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\com201\database\91892_Database_Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\com201\database\L2_DB_Prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77DC22-6478-4B30-A282-D85A962DD132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C088CF5-B5C2-48B9-AFEB-BA203E9A6129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="30" windowWidth="15045" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="30" windowWidth="16965" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
     <sheet name="Game_data" sheetId="11" r:id="rId2"/>
     <sheet name="length" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId5"/>
+    <sheet name="Developer" sheetId="13" r:id="rId4"/>
+    <sheet name="Genre" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5378,7 +5378,7 @@
         <v>1410</v>
       </c>
       <c r="M2" s="8">
-        <f>VLOOKUP(N2,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N2,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N2" t="s">
@@ -5423,7 +5423,7 @@
         <v>1410</v>
       </c>
       <c r="M3" s="8">
-        <f>VLOOKUP(N3,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N3,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N3" t="s">
@@ -5468,7 +5468,7 @@
         <v>1071</v>
       </c>
       <c r="M4" s="8">
-        <f>VLOOKUP(N4,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N4,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N4" t="s">
@@ -5513,7 +5513,7 @@
         <v>1410</v>
       </c>
       <c r="M5" s="8">
-        <f>VLOOKUP(N5,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N5,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N5" t="s">
@@ -5558,7 +5558,7 @@
         <v>1071</v>
       </c>
       <c r="M6" s="8">
-        <f>VLOOKUP(N6,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N6,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N6" t="s">
@@ -5603,7 +5603,7 @@
         <v>1411</v>
       </c>
       <c r="M7" s="8">
-        <f>VLOOKUP(N7,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N7,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N7" t="s">
@@ -5648,7 +5648,7 @@
         <v>1071</v>
       </c>
       <c r="M8" s="8">
-        <f>VLOOKUP(N8,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N8,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N8" t="s">
@@ -5693,7 +5693,7 @@
         <v>1071</v>
       </c>
       <c r="M9" s="8">
-        <f>VLOOKUP(N9,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N9,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N9" t="s">
@@ -5738,7 +5738,7 @@
         <v>1071</v>
       </c>
       <c r="M10" s="8">
-        <f>VLOOKUP(N10,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N10,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N10" t="s">
@@ -5783,7 +5783,7 @@
         <v>1410</v>
       </c>
       <c r="M11" s="8">
-        <f>VLOOKUP(N11,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N11,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N11" t="s">
@@ -5828,7 +5828,7 @@
         <v>1410</v>
       </c>
       <c r="M12" s="8">
-        <f>VLOOKUP(N12,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N12,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N12" t="s">
@@ -5873,7 +5873,7 @@
         <v>1411</v>
       </c>
       <c r="M13" s="8">
-        <f>VLOOKUP(N13,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N13,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N13" t="s">
@@ -5918,7 +5918,7 @@
         <v>1071</v>
       </c>
       <c r="M14" s="8">
-        <f>VLOOKUP(N14,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N14,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N14" t="s">
@@ -5963,7 +5963,7 @@
         <v>1410</v>
       </c>
       <c r="M15" s="8">
-        <f>VLOOKUP(N15,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N15,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N15" t="s">
@@ -6008,7 +6008,7 @@
         <v>1071</v>
       </c>
       <c r="M16" s="8">
-        <f>VLOOKUP(N16,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N16,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N16" t="s">
@@ -6053,7 +6053,7 @@
         <v>1410</v>
       </c>
       <c r="M17" s="8">
-        <f>VLOOKUP(N17,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N17,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N17" t="s">
@@ -6098,7 +6098,7 @@
         <v>1411</v>
       </c>
       <c r="M18" s="8">
-        <f>VLOOKUP(N18,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N18,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N18" t="s">
@@ -6143,7 +6143,7 @@
         <v>1071</v>
       </c>
       <c r="M19" s="8">
-        <f>VLOOKUP(N19,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N19,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N19" t="s">
@@ -6188,7 +6188,7 @@
         <v>1071</v>
       </c>
       <c r="M20" s="8">
-        <f>VLOOKUP(N20,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N20,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N20" t="s">
@@ -6233,7 +6233,7 @@
         <v>1071</v>
       </c>
       <c r="M21" s="8">
-        <f>VLOOKUP(N21,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N21,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N21" t="s">
@@ -6278,7 +6278,7 @@
         <v>1071</v>
       </c>
       <c r="M22" s="8">
-        <f>VLOOKUP(N22,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N22,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N22" t="s">
@@ -6323,7 +6323,7 @@
         <v>1410</v>
       </c>
       <c r="M23" s="8">
-        <f>VLOOKUP(N23,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N23,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N23" t="s">
@@ -6368,7 +6368,7 @@
         <v>1410</v>
       </c>
       <c r="M24" s="8">
-        <f>VLOOKUP(N24,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N24,Genre!$A$1:$B$17,2)</f>
         <v>9</v>
       </c>
       <c r="N24" t="s">
@@ -6413,7 +6413,7 @@
         <v>1071</v>
       </c>
       <c r="M25" s="8">
-        <f>VLOOKUP(N25,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N25,Genre!$A$1:$B$17,2)</f>
         <v>8</v>
       </c>
       <c r="N25" t="s">
@@ -6458,7 +6458,7 @@
         <v>1071</v>
       </c>
       <c r="M26" s="8">
-        <f>VLOOKUP(N26,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N26,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N26" t="s">
@@ -6503,7 +6503,7 @@
         <v>1071</v>
       </c>
       <c r="M27" s="8">
-        <f>VLOOKUP(N27,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N27,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N27" t="s">
@@ -6548,7 +6548,7 @@
         <v>1410</v>
       </c>
       <c r="M28" s="8">
-        <f>VLOOKUP(N28,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N28,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N28" t="s">
@@ -6593,7 +6593,7 @@
         <v>1410</v>
       </c>
       <c r="M29" s="8">
-        <f>VLOOKUP(N29,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N29,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N29" t="s">
@@ -6638,7 +6638,7 @@
         <v>1410</v>
       </c>
       <c r="M30" s="8">
-        <f>VLOOKUP(N30,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N30,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N30" t="s">
@@ -6683,7 +6683,7 @@
         <v>1410</v>
       </c>
       <c r="M31" s="8">
-        <f>VLOOKUP(N31,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N31,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N31" t="s">
@@ -6728,7 +6728,7 @@
         <v>1411</v>
       </c>
       <c r="M32" s="8">
-        <f>VLOOKUP(N32,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N32,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N32" t="s">
@@ -6773,7 +6773,7 @@
         <v>1411</v>
       </c>
       <c r="M33" s="8">
-        <f>VLOOKUP(N33,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N33,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N33" t="s">
@@ -6818,7 +6818,7 @@
         <v>1411</v>
       </c>
       <c r="M34" s="8">
-        <f>VLOOKUP(N34,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N34,Genre!$A$1:$B$17,2)</f>
         <v>2</v>
       </c>
       <c r="N34" t="s">
@@ -6863,7 +6863,7 @@
         <v>1071</v>
       </c>
       <c r="M35" s="8">
-        <f>VLOOKUP(N35,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N35,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N35" t="s">
@@ -6908,7 +6908,7 @@
         <v>1071</v>
       </c>
       <c r="M36" s="8">
-        <f>VLOOKUP(N36,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N36,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N36" t="s">
@@ -6953,7 +6953,7 @@
         <v>1071</v>
       </c>
       <c r="M37" s="8">
-        <f>VLOOKUP(N37,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N37,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N37" t="s">
@@ -6998,7 +6998,7 @@
         <v>1410</v>
       </c>
       <c r="M38" s="8">
-        <f>VLOOKUP(N38,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N38,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N38" t="s">
@@ -7043,7 +7043,7 @@
         <v>1410</v>
       </c>
       <c r="M39" s="8">
-        <f>VLOOKUP(N39,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N39,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N39" t="s">
@@ -7088,7 +7088,7 @@
         <v>1071</v>
       </c>
       <c r="M40" s="8">
-        <f>VLOOKUP(N40,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N40,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N40" t="s">
@@ -7133,7 +7133,7 @@
         <v>1071</v>
       </c>
       <c r="M41" s="8">
-        <f>VLOOKUP(N41,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N41,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N41" t="s">
@@ -7178,7 +7178,7 @@
         <v>1071</v>
       </c>
       <c r="M42" s="8">
-        <f>VLOOKUP(N42,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N42,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N42" t="s">
@@ -7223,7 +7223,7 @@
         <v>1410</v>
       </c>
       <c r="M43" s="8">
-        <f>VLOOKUP(N43,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N43,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N43" t="s">
@@ -7268,7 +7268,7 @@
         <v>1071</v>
       </c>
       <c r="M44" s="8">
-        <f>VLOOKUP(N44,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N44,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N44" t="s">
@@ -7313,7 +7313,7 @@
         <v>1411</v>
       </c>
       <c r="M45" s="8">
-        <f>VLOOKUP(N45,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N45,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N45" t="s">
@@ -7358,7 +7358,7 @@
         <v>1411</v>
       </c>
       <c r="M46" s="8">
-        <f>VLOOKUP(N46,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N46,Genre!$A$1:$B$17,2)</f>
         <v>7</v>
       </c>
       <c r="N46" t="s">
@@ -7403,7 +7403,7 @@
         <v>1410</v>
       </c>
       <c r="M47" s="8">
-        <f>VLOOKUP(N47,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N47,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N47" t="s">
@@ -7448,7 +7448,7 @@
         <v>1071</v>
       </c>
       <c r="M48" s="8">
-        <f>VLOOKUP(N48,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N48,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N48" t="s">
@@ -7493,7 +7493,7 @@
         <v>1071</v>
       </c>
       <c r="M49" s="8">
-        <f>VLOOKUP(N49,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N49,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N49" t="s">
@@ -7538,7 +7538,7 @@
         <v>1071</v>
       </c>
       <c r="M50" s="8">
-        <f>VLOOKUP(N50,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N50,Genre!$A$1:$B$17,2)</f>
         <v>7</v>
       </c>
       <c r="N50" t="s">
@@ -7583,7 +7583,7 @@
         <v>1071</v>
       </c>
       <c r="M51" s="8">
-        <f>VLOOKUP(N51,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N51,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N51" t="s">
@@ -7628,7 +7628,7 @@
         <v>1410</v>
       </c>
       <c r="M52" s="8">
-        <f>VLOOKUP(N52,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N52,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N52" t="s">
@@ -7673,7 +7673,7 @@
         <v>1071</v>
       </c>
       <c r="M53" s="8">
-        <f>VLOOKUP(N53,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N53,Genre!$A$1:$B$17,2)</f>
         <v>7</v>
       </c>
       <c r="N53" t="s">
@@ -7718,7 +7718,7 @@
         <v>1071</v>
       </c>
       <c r="M54" s="8">
-        <f>VLOOKUP(N54,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N54,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N54" t="s">
@@ -7763,7 +7763,7 @@
         <v>1410</v>
       </c>
       <c r="M55" s="8">
-        <f>VLOOKUP(N55,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N55,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N55" t="s">
@@ -7808,7 +7808,7 @@
         <v>1411</v>
       </c>
       <c r="M56" s="8">
-        <f>VLOOKUP(N56,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N56,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N56" t="s">
@@ -7853,7 +7853,7 @@
         <v>1410</v>
       </c>
       <c r="M57" s="8">
-        <f>VLOOKUP(N57,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N57,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N57" t="s">
@@ -7898,7 +7898,7 @@
         <v>1071</v>
       </c>
       <c r="M58" s="8">
-        <f>VLOOKUP(N58,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N58,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N58" t="s">
@@ -7943,7 +7943,7 @@
         <v>1071</v>
       </c>
       <c r="M59" s="8">
-        <f>VLOOKUP(N59,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N59,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N59" t="s">
@@ -7988,7 +7988,7 @@
         <v>1411</v>
       </c>
       <c r="M60" s="8">
-        <f>VLOOKUP(N60,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N60,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N60" t="s">
@@ -8033,7 +8033,7 @@
         <v>1411</v>
       </c>
       <c r="M61" s="8">
-        <f>VLOOKUP(N61,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N61,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N61" t="s">
@@ -8078,7 +8078,7 @@
         <v>1071</v>
       </c>
       <c r="M62" s="8">
-        <f>VLOOKUP(N62,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N62,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N62" t="s">
@@ -8123,7 +8123,7 @@
         <v>1410</v>
       </c>
       <c r="M63" s="8">
-        <f>VLOOKUP(N63,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N63,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N63" t="s">
@@ -8168,7 +8168,7 @@
         <v>1410</v>
       </c>
       <c r="M64" s="8">
-        <f>VLOOKUP(N64,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N64,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N64" t="s">
@@ -8213,7 +8213,7 @@
         <v>1410</v>
       </c>
       <c r="M65" s="8">
-        <f>VLOOKUP(N65,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N65,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N65" t="s">
@@ -8258,7 +8258,7 @@
         <v>1071</v>
       </c>
       <c r="M66" s="8">
-        <f>VLOOKUP(N66,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N66,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N66" t="s">
@@ -8303,7 +8303,7 @@
         <v>1410</v>
       </c>
       <c r="M67" s="8">
-        <f>VLOOKUP(N67,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N67,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N67" t="s">
@@ -8348,7 +8348,7 @@
         <v>1071</v>
       </c>
       <c r="M68" s="8">
-        <f>VLOOKUP(N68,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N68,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N68" t="s">
@@ -8393,7 +8393,7 @@
         <v>1410</v>
       </c>
       <c r="M69" s="8">
-        <f>VLOOKUP(N69,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N69,Genre!$A$1:$B$17,2)</f>
         <v>2</v>
       </c>
       <c r="N69" t="s">
@@ -8438,7 +8438,7 @@
         <v>1411</v>
       </c>
       <c r="M70" s="8">
-        <f>VLOOKUP(N70,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N70,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N70" t="s">
@@ -8483,7 +8483,7 @@
         <v>1411</v>
       </c>
       <c r="M71" s="8">
-        <f>VLOOKUP(N71,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N71,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N71" t="s">
@@ -8528,7 +8528,7 @@
         <v>1071</v>
       </c>
       <c r="M72" s="8">
-        <f>VLOOKUP(N72,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N72,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N72" t="s">
@@ -8573,7 +8573,7 @@
         <v>1071</v>
       </c>
       <c r="M73" s="8">
-        <f>VLOOKUP(N73,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N73,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N73" t="s">
@@ -8618,7 +8618,7 @@
         <v>1410</v>
       </c>
       <c r="M74" s="8">
-        <f>VLOOKUP(N74,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N74,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N74" t="s">
@@ -8663,7 +8663,7 @@
         <v>1410</v>
       </c>
       <c r="M75" s="8">
-        <f>VLOOKUP(N75,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N75,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N75" t="s">
@@ -8708,7 +8708,7 @@
         <v>1071</v>
       </c>
       <c r="M76" s="8">
-        <f>VLOOKUP(N76,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N76,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N76" t="s">
@@ -8753,7 +8753,7 @@
         <v>1071</v>
       </c>
       <c r="M77" s="8">
-        <f>VLOOKUP(N77,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N77,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N77" t="s">
@@ -8798,7 +8798,7 @@
         <v>1411</v>
       </c>
       <c r="M78" s="8">
-        <f>VLOOKUP(N78,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N78,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N78" t="s">
@@ -8843,7 +8843,7 @@
         <v>1071</v>
       </c>
       <c r="M79" s="8">
-        <f>VLOOKUP(N79,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N79,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N79" t="s">
@@ -8888,7 +8888,7 @@
         <v>1071</v>
       </c>
       <c r="M80" s="8">
-        <f>VLOOKUP(N80,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N80,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N80" t="s">
@@ -8933,7 +8933,7 @@
         <v>1071</v>
       </c>
       <c r="M81" s="8">
-        <f>VLOOKUP(N81,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N81,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N81" t="s">
@@ -8978,7 +8978,7 @@
         <v>1410</v>
       </c>
       <c r="M82" s="8">
-        <f>VLOOKUP(N82,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N82,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N82" t="s">
@@ -9023,7 +9023,7 @@
         <v>1410</v>
       </c>
       <c r="M83" s="8">
-        <f>VLOOKUP(N83,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N83,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N83" t="s">
@@ -9068,7 +9068,7 @@
         <v>1411</v>
       </c>
       <c r="M84" s="8">
-        <f>VLOOKUP(N84,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N84,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N84" t="s">
@@ -9113,7 +9113,7 @@
         <v>1411</v>
       </c>
       <c r="M85" s="8">
-        <f>VLOOKUP(N85,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N85,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N85" t="s">
@@ -9158,7 +9158,7 @@
         <v>1411</v>
       </c>
       <c r="M86" s="8">
-        <f>VLOOKUP(N86,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N86,Genre!$A$1:$B$17,2)</f>
         <v>10</v>
       </c>
       <c r="N86" t="s">
@@ -9203,7 +9203,7 @@
         <v>1410</v>
       </c>
       <c r="M87" s="8">
-        <f>VLOOKUP(N87,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N87,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N87" t="s">
@@ -9248,7 +9248,7 @@
         <v>1411</v>
       </c>
       <c r="M88" s="8">
-        <f>VLOOKUP(N88,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N88,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N88" t="s">
@@ -9293,7 +9293,7 @@
         <v>1071</v>
       </c>
       <c r="M89" s="8">
-        <f>VLOOKUP(N89,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N89,Genre!$A$1:$B$17,2)</f>
         <v>7</v>
       </c>
       <c r="N89" t="s">
@@ -9338,7 +9338,7 @@
         <v>1071</v>
       </c>
       <c r="M90" s="8">
-        <f>VLOOKUP(N90,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N90,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N90" t="s">
@@ -9383,7 +9383,7 @@
         <v>1071</v>
       </c>
       <c r="M91" s="8">
-        <f>VLOOKUP(N91,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N91,Genre!$A$1:$B$17,2)</f>
         <v>6</v>
       </c>
       <c r="N91" t="s">
@@ -9428,7 +9428,7 @@
         <v>1410</v>
       </c>
       <c r="M92" s="8">
-        <f>VLOOKUP(N92,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N92,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N92" t="s">
@@ -9473,7 +9473,7 @@
         <v>1071</v>
       </c>
       <c r="M93" s="8">
-        <f>VLOOKUP(N93,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N93,Genre!$A$1:$B$17,2)</f>
         <v>12</v>
       </c>
       <c r="N93" t="s">
@@ -9518,7 +9518,7 @@
         <v>1071</v>
       </c>
       <c r="M94" s="8">
-        <f>VLOOKUP(N94,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N94,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N94" t="s">
@@ -9563,7 +9563,7 @@
         <v>1071</v>
       </c>
       <c r="M95" s="8">
-        <f>VLOOKUP(N95,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N95,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N95" t="s">
@@ -9608,7 +9608,7 @@
         <v>1411</v>
       </c>
       <c r="M96" s="8">
-        <f>VLOOKUP(N96,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N96,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N96" t="s">
@@ -9653,7 +9653,7 @@
         <v>1071</v>
       </c>
       <c r="M97" s="8">
-        <f>VLOOKUP(N97,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N97,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N97" t="s">
@@ -9698,7 +9698,7 @@
         <v>1410</v>
       </c>
       <c r="M98" s="8">
-        <f>VLOOKUP(N98,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N98,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N98" t="s">
@@ -9743,7 +9743,7 @@
         <v>1411</v>
       </c>
       <c r="M99" s="8">
-        <f>VLOOKUP(N99,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N99,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N99" t="s">
@@ -9788,7 +9788,7 @@
         <v>1411</v>
       </c>
       <c r="M100" s="8">
-        <f>VLOOKUP(N100,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N100,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N100" t="s">
@@ -9833,7 +9833,7 @@
         <v>1410</v>
       </c>
       <c r="M101" s="8">
-        <f>VLOOKUP(N101,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N101,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N101" t="s">
@@ -9878,7 +9878,7 @@
         <v>1410</v>
       </c>
       <c r="M102" s="8">
-        <f>VLOOKUP(N102,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N102,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N102" t="s">
@@ -9923,7 +9923,7 @@
         <v>1410</v>
       </c>
       <c r="M103" s="8">
-        <f>VLOOKUP(N103,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N103,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N103" t="s">
@@ -9968,7 +9968,7 @@
         <v>1410</v>
       </c>
       <c r="M104" s="8">
-        <f>VLOOKUP(N104,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N104,Genre!$A$1:$B$17,2)</f>
         <v>12</v>
       </c>
       <c r="N104" t="s">
@@ -10013,7 +10013,7 @@
         <v>1071</v>
       </c>
       <c r="M105" s="8">
-        <f>VLOOKUP(N105,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N105,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N105" t="s">
@@ -10058,7 +10058,7 @@
         <v>1071</v>
       </c>
       <c r="M106" s="8">
-        <f>VLOOKUP(N106,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N106,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N106" t="s">
@@ -10103,7 +10103,7 @@
         <v>1071</v>
       </c>
       <c r="M107" s="8">
-        <f>VLOOKUP(N107,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N107,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N107" t="s">
@@ -10148,7 +10148,7 @@
         <v>1071</v>
       </c>
       <c r="M108" s="8">
-        <f>VLOOKUP(N108,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N108,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N108" t="s">
@@ -10193,7 +10193,7 @@
         <v>1410</v>
       </c>
       <c r="M109" s="8">
-        <f>VLOOKUP(N109,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N109,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N109" t="s">
@@ -10238,7 +10238,7 @@
         <v>1071</v>
       </c>
       <c r="M110" s="8">
-        <f>VLOOKUP(N110,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N110,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N110" t="s">
@@ -10283,7 +10283,7 @@
         <v>1411</v>
       </c>
       <c r="M111" s="8">
-        <f>VLOOKUP(N111,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N111,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N111" t="s">
@@ -10328,7 +10328,7 @@
         <v>1071</v>
       </c>
       <c r="M112" s="8">
-        <f>VLOOKUP(N112,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N112,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N112" t="s">
@@ -10373,7 +10373,7 @@
         <v>1071</v>
       </c>
       <c r="M113" s="8">
-        <f>VLOOKUP(N113,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N113,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N113" t="s">
@@ -10418,7 +10418,7 @@
         <v>1071</v>
       </c>
       <c r="M114" s="8">
-        <f>VLOOKUP(N114,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N114,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N114" t="s">
@@ -10463,7 +10463,7 @@
         <v>1411</v>
       </c>
       <c r="M115" s="8">
-        <f>VLOOKUP(N115,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N115,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N115" t="s">
@@ -10508,7 +10508,7 @@
         <v>1411</v>
       </c>
       <c r="M116" s="8">
-        <f>VLOOKUP(N116,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N116,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N116" t="s">
@@ -10553,7 +10553,7 @@
         <v>1410</v>
       </c>
       <c r="M117" s="8">
-        <f>VLOOKUP(N117,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N117,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N117" t="s">
@@ -10598,7 +10598,7 @@
         <v>1411</v>
       </c>
       <c r="M118" s="8">
-        <f>VLOOKUP(N118,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N118,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N118" t="s">
@@ -10643,7 +10643,7 @@
         <v>1071</v>
       </c>
       <c r="M119" s="8">
-        <f>VLOOKUP(N119,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N119,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N119" t="s">
@@ -10688,7 +10688,7 @@
         <v>1071</v>
       </c>
       <c r="M120" s="8">
-        <f>VLOOKUP(N120,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N120,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N120" t="s">
@@ -10733,7 +10733,7 @@
         <v>1071</v>
       </c>
       <c r="M121" s="8">
-        <f>VLOOKUP(N121,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N121,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N121" t="s">
@@ -10778,7 +10778,7 @@
         <v>1071</v>
       </c>
       <c r="M122" s="8">
-        <f>VLOOKUP(N122,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N122,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N122" t="s">
@@ -10823,7 +10823,7 @@
         <v>1071</v>
       </c>
       <c r="M123" s="8">
-        <f>VLOOKUP(N123,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N123,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N123" t="s">
@@ -10868,7 +10868,7 @@
         <v>1411</v>
       </c>
       <c r="M124" s="8">
-        <f>VLOOKUP(N124,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N124,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N124" t="s">
@@ -10913,7 +10913,7 @@
         <v>1411</v>
       </c>
       <c r="M125" s="8">
-        <f>VLOOKUP(N125,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N125,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N125" t="s">
@@ -10958,7 +10958,7 @@
         <v>1410</v>
       </c>
       <c r="M126" s="8">
-        <f>VLOOKUP(N126,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N126,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N126" t="s">
@@ -11003,7 +11003,7 @@
         <v>1071</v>
       </c>
       <c r="M127" s="8">
-        <f>VLOOKUP(N127,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N127,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N127" t="s">
@@ -11048,7 +11048,7 @@
         <v>1410</v>
       </c>
       <c r="M128" s="8">
-        <f>VLOOKUP(N128,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N128,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N128" t="s">
@@ -11093,7 +11093,7 @@
         <v>1411</v>
       </c>
       <c r="M129" s="8">
-        <f>VLOOKUP(N129,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N129,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N129" t="s">
@@ -11138,7 +11138,7 @@
         <v>1411</v>
       </c>
       <c r="M130" s="8">
-        <f>VLOOKUP(N130,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N130,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N130" t="s">
@@ -11183,7 +11183,7 @@
         <v>1410</v>
       </c>
       <c r="M131" s="8">
-        <f>VLOOKUP(N131,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N131,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N131" t="s">
@@ -11228,7 +11228,7 @@
         <v>1071</v>
       </c>
       <c r="M132" s="8">
-        <f>VLOOKUP(N132,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N132,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N132" t="s">
@@ -11273,7 +11273,7 @@
         <v>1071</v>
       </c>
       <c r="M133" s="8">
-        <f>VLOOKUP(N133,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N133,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N133" t="s">
@@ -11318,7 +11318,7 @@
         <v>1410</v>
       </c>
       <c r="M134" s="8">
-        <f>VLOOKUP(N134,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N134,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N134" t="s">
@@ -11363,7 +11363,7 @@
         <v>1411</v>
       </c>
       <c r="M135" s="8">
-        <f>VLOOKUP(N135,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N135,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N135" t="s">
@@ -11408,7 +11408,7 @@
         <v>1411</v>
       </c>
       <c r="M136" s="8">
-        <f>VLOOKUP(N136,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N136,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N136" t="s">
@@ -11453,7 +11453,7 @@
         <v>1071</v>
       </c>
       <c r="M137" s="8">
-        <f>VLOOKUP(N137,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N137,Genre!$A$1:$B$17,2)</f>
         <v>15</v>
       </c>
       <c r="N137" t="s">
@@ -11498,7 +11498,7 @@
         <v>1410</v>
       </c>
       <c r="M138" s="8">
-        <f>VLOOKUP(N138,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N138,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N138" t="s">
@@ -11543,7 +11543,7 @@
         <v>1071</v>
       </c>
       <c r="M139" s="8">
-        <f>VLOOKUP(N139,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N139,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N139" t="s">
@@ -11588,7 +11588,7 @@
         <v>1071</v>
       </c>
       <c r="M140" s="8">
-        <f>VLOOKUP(N140,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N140,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N140" t="s">
@@ -11633,7 +11633,7 @@
         <v>1071</v>
       </c>
       <c r="M141" s="8">
-        <f>VLOOKUP(N141,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N141,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N141" t="s">
@@ -11678,7 +11678,7 @@
         <v>1071</v>
       </c>
       <c r="M142" s="8">
-        <f>VLOOKUP(N142,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N142,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N142" t="s">
@@ -11723,7 +11723,7 @@
         <v>1071</v>
       </c>
       <c r="M143" s="8">
-        <f>VLOOKUP(N143,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N143,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N143" t="s">
@@ -11768,7 +11768,7 @@
         <v>1410</v>
       </c>
       <c r="M144" s="8">
-        <f>VLOOKUP(N144,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N144,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N144" t="s">
@@ -11813,7 +11813,7 @@
         <v>1071</v>
       </c>
       <c r="M145" s="8">
-        <f>VLOOKUP(N145,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N145,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N145" t="s">
@@ -11858,7 +11858,7 @@
         <v>1411</v>
       </c>
       <c r="M146" s="8">
-        <f>VLOOKUP(N146,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N146,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N146" t="s">
@@ -11903,7 +11903,7 @@
         <v>1071</v>
       </c>
       <c r="M147" s="8">
-        <f>VLOOKUP(N147,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N147,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N147" t="s">
@@ -11948,7 +11948,7 @@
         <v>1410</v>
       </c>
       <c r="M148" s="8">
-        <f>VLOOKUP(N148,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N148,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N148" t="s">
@@ -11993,7 +11993,7 @@
         <v>1410</v>
       </c>
       <c r="M149" s="8">
-        <f>VLOOKUP(N149,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N149,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N149" t="s">
@@ -12038,7 +12038,7 @@
         <v>1410</v>
       </c>
       <c r="M150" s="8">
-        <f>VLOOKUP(N150,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N150,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N150" t="s">
@@ -12083,7 +12083,7 @@
         <v>1411</v>
       </c>
       <c r="M151" s="8">
-        <f>VLOOKUP(N151,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N151,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N151" t="s">
@@ -12128,7 +12128,7 @@
         <v>1071</v>
       </c>
       <c r="M152" s="8">
-        <f>VLOOKUP(N152,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N152,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N152" t="s">
@@ -12173,7 +12173,7 @@
         <v>1071</v>
       </c>
       <c r="M153" s="8">
-        <f>VLOOKUP(N153,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N153,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N153" t="s">
@@ -12218,7 +12218,7 @@
         <v>1071</v>
       </c>
       <c r="M154" s="8">
-        <f>VLOOKUP(N154,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N154,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N154" t="s">
@@ -12263,7 +12263,7 @@
         <v>1071</v>
       </c>
       <c r="M155" s="8">
-        <f>VLOOKUP(N155,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N155,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N155" t="s">
@@ -12308,7 +12308,7 @@
         <v>1071</v>
       </c>
       <c r="M156" s="8">
-        <f>VLOOKUP(N156,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N156,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N156" t="s">
@@ -12353,7 +12353,7 @@
         <v>1071</v>
       </c>
       <c r="M157" s="8">
-        <f>VLOOKUP(N157,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N157,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N157" t="s">
@@ -12398,7 +12398,7 @@
         <v>1410</v>
       </c>
       <c r="M158" s="8">
-        <f>VLOOKUP(N158,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N158,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N158" t="s">
@@ -12443,7 +12443,7 @@
         <v>1410</v>
       </c>
       <c r="M159" s="8">
-        <f>VLOOKUP(N159,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N159,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N159" t="s">
@@ -12488,7 +12488,7 @@
         <v>1071</v>
       </c>
       <c r="M160" s="8">
-        <f>VLOOKUP(N160,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N160,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N160" t="s">
@@ -12533,7 +12533,7 @@
         <v>1071</v>
       </c>
       <c r="M161" s="8">
-        <f>VLOOKUP(N161,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N161,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N161" t="s">
@@ -12578,7 +12578,7 @@
         <v>1071</v>
       </c>
       <c r="M162" s="8">
-        <f>VLOOKUP(N162,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N162,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N162" t="s">
@@ -12623,7 +12623,7 @@
         <v>1071</v>
       </c>
       <c r="M163" s="8">
-        <f>VLOOKUP(N163,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N163,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N163" t="s">
@@ -12668,7 +12668,7 @@
         <v>1071</v>
       </c>
       <c r="M164" s="8">
-        <f>VLOOKUP(N164,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N164,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N164" t="s">
@@ -12713,7 +12713,7 @@
         <v>1071</v>
       </c>
       <c r="M165" s="8">
-        <f>VLOOKUP(N165,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N165,Genre!$A$1:$B$17,2)</f>
         <v>6</v>
       </c>
       <c r="N165" t="s">
@@ -12758,7 +12758,7 @@
         <v>1071</v>
       </c>
       <c r="M166" s="8">
-        <f>VLOOKUP(N166,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N166,Genre!$A$1:$B$17,2)</f>
         <v>2</v>
       </c>
       <c r="N166" t="s">
@@ -12803,7 +12803,7 @@
         <v>1411</v>
       </c>
       <c r="M167" s="8">
-        <f>VLOOKUP(N167,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N167,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N167" t="s">
@@ -12848,7 +12848,7 @@
         <v>1071</v>
       </c>
       <c r="M168" s="8">
-        <f>VLOOKUP(N168,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N168,Genre!$A$1:$B$17,2)</f>
         <v>6</v>
       </c>
       <c r="N168" t="s">
@@ -12893,7 +12893,7 @@
         <v>1071</v>
       </c>
       <c r="M169" s="8">
-        <f>VLOOKUP(N169,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N169,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N169" t="s">
@@ -12938,7 +12938,7 @@
         <v>1411</v>
       </c>
       <c r="M170" s="8">
-        <f>VLOOKUP(N170,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N170,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N170" t="s">
@@ -12983,7 +12983,7 @@
         <v>1411</v>
       </c>
       <c r="M171" s="8">
-        <f>VLOOKUP(N171,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N171,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N171" t="s">
@@ -13028,7 +13028,7 @@
         <v>1071</v>
       </c>
       <c r="M172" s="8">
-        <f>VLOOKUP(N172,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N172,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N172" t="s">
@@ -13073,7 +13073,7 @@
         <v>1410</v>
       </c>
       <c r="M173" s="8">
-        <f>VLOOKUP(N173,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N173,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N173" t="s">
@@ -13118,7 +13118,7 @@
         <v>1071</v>
       </c>
       <c r="M174" s="8">
-        <f>VLOOKUP(N174,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N174,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N174" t="s">
@@ -13163,7 +13163,7 @@
         <v>1410</v>
       </c>
       <c r="M175" s="8">
-        <f>VLOOKUP(N175,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N175,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N175" t="s">
@@ -13208,7 +13208,7 @@
         <v>1071</v>
       </c>
       <c r="M176" s="8">
-        <f>VLOOKUP(N176,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N176,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N176" t="s">
@@ -13253,7 +13253,7 @@
         <v>1411</v>
       </c>
       <c r="M177" s="8">
-        <f>VLOOKUP(N177,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N177,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N177" t="s">
@@ -13298,7 +13298,7 @@
         <v>1410</v>
       </c>
       <c r="M178" s="8">
-        <f>VLOOKUP(N178,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N178,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N178" t="s">
@@ -13343,7 +13343,7 @@
         <v>1071</v>
       </c>
       <c r="M179" s="8">
-        <f>VLOOKUP(N179,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N179,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N179" t="s">
@@ -13388,7 +13388,7 @@
         <v>1071</v>
       </c>
       <c r="M180" s="8">
-        <f>VLOOKUP(N180,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N180,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N180" t="s">
@@ -13433,7 +13433,7 @@
         <v>1411</v>
       </c>
       <c r="M181" s="8">
-        <f>VLOOKUP(N181,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N181,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N181" t="s">
@@ -13478,7 +13478,7 @@
         <v>1411</v>
       </c>
       <c r="M182" s="8">
-        <f>VLOOKUP(N182,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N182,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N182" t="s">
@@ -13523,7 +13523,7 @@
         <v>1410</v>
       </c>
       <c r="M183" s="8">
-        <f>VLOOKUP(N183,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N183,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N183" t="s">
@@ -13568,7 +13568,7 @@
         <v>1411</v>
       </c>
       <c r="M184" s="8">
-        <f>VLOOKUP(N184,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N184,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N184" t="s">
@@ -13613,7 +13613,7 @@
         <v>1410</v>
       </c>
       <c r="M185" s="8">
-        <f>VLOOKUP(N185,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N185,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N185" t="s">
@@ -13658,7 +13658,7 @@
         <v>1410</v>
       </c>
       <c r="M186" s="8">
-        <f>VLOOKUP(N186,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N186,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N186" t="s">
@@ -13703,7 +13703,7 @@
         <v>1411</v>
       </c>
       <c r="M187" s="8">
-        <f>VLOOKUP(N187,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N187,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N187" t="s">
@@ -13748,7 +13748,7 @@
         <v>1071</v>
       </c>
       <c r="M188" s="8">
-        <f>VLOOKUP(N188,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N188,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N188" t="s">
@@ -13793,7 +13793,7 @@
         <v>1410</v>
       </c>
       <c r="M189" s="8">
-        <f>VLOOKUP(N189,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N189,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N189" t="s">
@@ -13838,7 +13838,7 @@
         <v>1071</v>
       </c>
       <c r="M190" s="8">
-        <f>VLOOKUP(N190,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N190,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N190" t="s">
@@ -13883,7 +13883,7 @@
         <v>1071</v>
       </c>
       <c r="M191" s="8">
-        <f>VLOOKUP(N191,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N191,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N191" t="s">
@@ -13928,7 +13928,7 @@
         <v>1071</v>
       </c>
       <c r="M192" s="8">
-        <f>VLOOKUP(N192,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N192,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N192" t="s">
@@ -13973,7 +13973,7 @@
         <v>1410</v>
       </c>
       <c r="M193" s="8">
-        <f>VLOOKUP(N193,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N193,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N193" t="s">
@@ -14018,7 +14018,7 @@
         <v>1410</v>
       </c>
       <c r="M194" s="8">
-        <f>VLOOKUP(N194,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N194,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N194" t="s">
@@ -14063,7 +14063,7 @@
         <v>1071</v>
       </c>
       <c r="M195" s="8">
-        <f>VLOOKUP(N195,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N195,Genre!$A$1:$B$17,2)</f>
         <v>16</v>
       </c>
       <c r="N195" t="s">
@@ -14108,7 +14108,7 @@
         <v>1411</v>
       </c>
       <c r="M196" s="8">
-        <f>VLOOKUP(N196,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N196,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N196" t="s">
@@ -14153,7 +14153,7 @@
         <v>1411</v>
       </c>
       <c r="M197" s="8">
-        <f>VLOOKUP(N197,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N197,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N197" t="s">
@@ -14198,7 +14198,7 @@
         <v>1071</v>
       </c>
       <c r="M198" s="8">
-        <f>VLOOKUP(N198,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N198,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N198" t="s">
@@ -14243,7 +14243,7 @@
         <v>1410</v>
       </c>
       <c r="M199" s="8">
-        <f>VLOOKUP(N199,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N199,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N199" t="s">
@@ -14288,7 +14288,7 @@
         <v>1071</v>
       </c>
       <c r="M200" s="8">
-        <f>VLOOKUP(N200,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N200,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N200" t="s">
@@ -14333,7 +14333,7 @@
         <v>1071</v>
       </c>
       <c r="M201" s="8">
-        <f>VLOOKUP(N201,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N201,Genre!$A$1:$B$17,2)</f>
         <v>6</v>
       </c>
       <c r="N201" t="s">
@@ -14378,7 +14378,7 @@
         <v>1411</v>
       </c>
       <c r="M202" s="8">
-        <f>VLOOKUP(N202,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N202,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N202" t="s">
@@ -14423,7 +14423,7 @@
         <v>1071</v>
       </c>
       <c r="M203" s="8">
-        <f>VLOOKUP(N203,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N203,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N203" t="s">
@@ -14468,7 +14468,7 @@
         <v>1410</v>
       </c>
       <c r="M204" s="8">
-        <f>VLOOKUP(N204,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N204,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N204" t="s">
@@ -14513,7 +14513,7 @@
         <v>1071</v>
       </c>
       <c r="M205" s="8">
-        <f>VLOOKUP(N205,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N205,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N205" t="s">
@@ -14558,7 +14558,7 @@
         <v>1410</v>
       </c>
       <c r="M206" s="8">
-        <f>VLOOKUP(N206,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N206,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N206" t="s">
@@ -14603,7 +14603,7 @@
         <v>1411</v>
       </c>
       <c r="M207" s="8">
-        <f>VLOOKUP(N207,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N207,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N207" t="s">
@@ -14648,7 +14648,7 @@
         <v>1071</v>
       </c>
       <c r="M208" s="8">
-        <f>VLOOKUP(N208,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N208,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N208" t="s">
@@ -14693,7 +14693,7 @@
         <v>1071</v>
       </c>
       <c r="M209" s="8">
-        <f>VLOOKUP(N209,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N209,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N209" t="s">
@@ -14738,7 +14738,7 @@
         <v>1071</v>
       </c>
       <c r="M210" s="8">
-        <f>VLOOKUP(N210,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N210,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N210" t="s">
@@ -14783,7 +14783,7 @@
         <v>1410</v>
       </c>
       <c r="M211" s="8">
-        <f>VLOOKUP(N211,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N211,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N211" t="s">
@@ -14828,7 +14828,7 @@
         <v>1071</v>
       </c>
       <c r="M212" s="8">
-        <f>VLOOKUP(N212,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N212,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N212" t="s">
@@ -14873,7 +14873,7 @@
         <v>1410</v>
       </c>
       <c r="M213" s="8">
-        <f>VLOOKUP(N213,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N213,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N213" t="s">
@@ -14918,7 +14918,7 @@
         <v>1410</v>
       </c>
       <c r="M214" s="8">
-        <f>VLOOKUP(N214,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N214,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N214" t="s">
@@ -14963,7 +14963,7 @@
         <v>1071</v>
       </c>
       <c r="M215" s="8">
-        <f>VLOOKUP(N215,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N215,Genre!$A$1:$B$17,2)</f>
         <v>6</v>
       </c>
       <c r="N215" t="s">
@@ -15008,7 +15008,7 @@
         <v>1411</v>
       </c>
       <c r="M216" s="8">
-        <f>VLOOKUP(N216,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N216,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N216" t="s">
@@ -15053,7 +15053,7 @@
         <v>1411</v>
       </c>
       <c r="M217" s="8">
-        <f>VLOOKUP(N217,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N217,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N217" t="s">
@@ -15098,7 +15098,7 @@
         <v>1071</v>
       </c>
       <c r="M218" s="8">
-        <f>VLOOKUP(N218,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N218,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N218" t="s">
@@ -15143,7 +15143,7 @@
         <v>1410</v>
       </c>
       <c r="M219" s="8">
-        <f>VLOOKUP(N219,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N219,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N219" t="s">
@@ -15188,7 +15188,7 @@
         <v>1071</v>
       </c>
       <c r="M220" s="8">
-        <f>VLOOKUP(N220,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N220,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N220" t="s">
@@ -15233,7 +15233,7 @@
         <v>1071</v>
       </c>
       <c r="M221" s="8">
-        <f>VLOOKUP(N221,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N221,Genre!$A$1:$B$17,2)</f>
         <v>5</v>
       </c>
       <c r="N221" t="s">
@@ -15278,7 +15278,7 @@
         <v>1411</v>
       </c>
       <c r="M222" s="8">
-        <f>VLOOKUP(N222,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N222,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N222" t="s">
@@ -15323,7 +15323,7 @@
         <v>1071</v>
       </c>
       <c r="M223" s="8">
-        <f>VLOOKUP(N223,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N223,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N223" t="s">
@@ -15368,7 +15368,7 @@
         <v>1411</v>
       </c>
       <c r="M224" s="8">
-        <f>VLOOKUP(N224,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N224,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N224" t="s">
@@ -15413,7 +15413,7 @@
         <v>1071</v>
       </c>
       <c r="M225" s="8">
-        <f>VLOOKUP(N225,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N225,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N225" t="s">
@@ -15458,7 +15458,7 @@
         <v>1071</v>
       </c>
       <c r="M226" s="8">
-        <f>VLOOKUP(N226,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N226,Genre!$A$1:$B$17,2)</f>
         <v>7</v>
       </c>
       <c r="N226" t="s">
@@ -15503,7 +15503,7 @@
         <v>1410</v>
       </c>
       <c r="M227" s="8">
-        <f>VLOOKUP(N227,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N227,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N227" t="s">
@@ -15548,7 +15548,7 @@
         <v>1410</v>
       </c>
       <c r="M228" s="8">
-        <f>VLOOKUP(N228,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N228,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N228" t="s">
@@ -15593,7 +15593,7 @@
         <v>1410</v>
       </c>
       <c r="M229" s="8">
-        <f>VLOOKUP(N229,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N229,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N229" t="s">
@@ -15638,7 +15638,7 @@
         <v>1410</v>
       </c>
       <c r="M230" s="8">
-        <f>VLOOKUP(N230,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N230,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N230" t="s">
@@ -15683,7 +15683,7 @@
         <v>1411</v>
       </c>
       <c r="M231" s="8">
-        <f>VLOOKUP(N231,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N231,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N231" t="s">
@@ -15728,7 +15728,7 @@
         <v>1410</v>
       </c>
       <c r="M232" s="8">
-        <f>VLOOKUP(N232,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N232,Genre!$A$1:$B$17,2)</f>
         <v>4</v>
       </c>
       <c r="N232" t="s">
@@ -15773,7 +15773,7 @@
         <v>1411</v>
       </c>
       <c r="M233" s="8">
-        <f>VLOOKUP(N233,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N233,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N233" t="s">
@@ -15818,7 +15818,7 @@
         <v>1410</v>
       </c>
       <c r="M234" s="8">
-        <f>VLOOKUP(N234,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N234,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N234" t="s">
@@ -15863,7 +15863,7 @@
         <v>1071</v>
       </c>
       <c r="M235" s="8">
-        <f>VLOOKUP(N235,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N235,Genre!$A$1:$B$17,2)</f>
         <v>3</v>
       </c>
       <c r="N235" t="s">
@@ -15908,7 +15908,7 @@
         <v>1410</v>
       </c>
       <c r="M236" s="8">
-        <f>VLOOKUP(N236,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N236,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N236" t="s">
@@ -15953,7 +15953,7 @@
         <v>1411</v>
       </c>
       <c r="M237" s="8">
-        <f>VLOOKUP(N237,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N237,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N237" t="s">
@@ -15998,7 +15998,7 @@
         <v>1071</v>
       </c>
       <c r="M238" s="8">
-        <f>VLOOKUP(N238,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N238,Genre!$A$1:$B$17,2)</f>
         <v>11</v>
       </c>
       <c r="N238" t="s">
@@ -16043,7 +16043,7 @@
         <v>1071</v>
       </c>
       <c r="M239" s="8">
-        <f>VLOOKUP(N239,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N239,Genre!$A$1:$B$17,2)</f>
         <v>16</v>
       </c>
       <c r="N239" t="s">
@@ -16088,7 +16088,7 @@
         <v>1410</v>
       </c>
       <c r="M240" s="8">
-        <f>VLOOKUP(N240,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N240,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N240" t="s">
@@ -16133,7 +16133,7 @@
         <v>1411</v>
       </c>
       <c r="M241" s="8">
-        <f>VLOOKUP(N241,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N241,Genre!$A$1:$B$17,2)</f>
         <v>14</v>
       </c>
       <c r="N241" t="s">
@@ -16178,7 +16178,7 @@
         <v>1410</v>
       </c>
       <c r="M242" s="8">
-        <f>VLOOKUP(N242,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N242,Genre!$A$1:$B$17,2)</f>
         <v>13</v>
       </c>
       <c r="N242" t="s">
@@ -16223,7 +16223,7 @@
         <v>1410</v>
       </c>
       <c r="M243" s="8">
-        <f>VLOOKUP(N243,Sheet3!$A$1:$B$17,2)</f>
+        <f>VLOOKUP(N243,Genre!$A$1:$B$17,2)</f>
         <v>1</v>
       </c>
       <c r="N243" t="s">
@@ -16380,7 +16380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C3A85A-0330-43FE-A961-F1C4A5C89018}">
   <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D58" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -30561,1580 +30561,1580 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DDED9-B029-4DBB-A062-7704FDAF0ABB}">
   <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>1413</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>1375</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>700</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>468</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>209</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>443</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>293</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>452</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>222</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>596</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>186</v>
       </c>
-      <c r="B13">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B17">
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>646</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>711</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>611</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>757</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>630</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>607</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>739</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>592</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>724</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>514</v>
-      </c>
-      <c r="B46">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>476</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>831</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>496</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>880</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>522</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>518</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>319</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>486</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>504</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>190</v>
       </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>472</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>665</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>341</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>551</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>752</v>
-      </c>
-      <c r="B75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>805</v>
-      </c>
-      <c r="B76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>777</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>809</v>
-      </c>
-      <c r="B80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>301</v>
-      </c>
-      <c r="B82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>678</v>
-      </c>
-      <c r="B83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>392</v>
-      </c>
-      <c r="B84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>304</v>
-      </c>
-      <c r="B85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>787</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>615</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>394</v>
-      </c>
-      <c r="B93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>851</v>
-      </c>
-      <c r="B95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>795</v>
-      </c>
-      <c r="B97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>451</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>289</v>
-      </c>
-      <c r="B99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>817</v>
-      </c>
-      <c r="B100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>564</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>619</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>791</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>433</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>802</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>824</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>861</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>753</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>674</v>
-      </c>
-      <c r="B112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>275</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>669</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>456</v>
-      </c>
-      <c r="B115">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>465</v>
-      </c>
-      <c r="B117">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>239</v>
-      </c>
-      <c r="B118">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>457</v>
-      </c>
-      <c r="B121">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>571</v>
-      </c>
-      <c r="B122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>230</v>
-      </c>
-      <c r="B123">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>391</v>
-      </c>
-      <c r="B124">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>544</v>
-      </c>
-      <c r="B125">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>288</v>
-      </c>
-      <c r="B126">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>414</v>
-      </c>
-      <c r="B128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>838</v>
-      </c>
-      <c r="B129">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>687</v>
-      </c>
-      <c r="B130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>370</v>
-      </c>
-      <c r="B131">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>636</v>
-      </c>
-      <c r="B133">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>63</v>
-      </c>
-      <c r="B134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>112</v>
-      </c>
-      <c r="B135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>477</v>
-      </c>
-      <c r="B136">
+      <c r="B192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>464</v>
-      </c>
-      <c r="B138">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>401</v>
-      </c>
-      <c r="B139">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>363</v>
-      </c>
-      <c r="B140">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>82</v>
-      </c>
-      <c r="B141">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>500</v>
-      </c>
-      <c r="B142">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>359</v>
-      </c>
-      <c r="B143">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>252</v>
-      </c>
-      <c r="B144">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>427</v>
-      </c>
-      <c r="B145">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>541</v>
-      </c>
-      <c r="B146">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>650</v>
-      </c>
-      <c r="B147">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>897</v>
-      </c>
-      <c r="B148">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>410</v>
-      </c>
-      <c r="B150">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>405</v>
-      </c>
-      <c r="B151">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>553</v>
-      </c>
-      <c r="B152">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>61</v>
-      </c>
-      <c r="B154">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>189</v>
-      </c>
-      <c r="B155">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>330</v>
-      </c>
-      <c r="B156">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>600</v>
-      </c>
-      <c r="B159">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>32</v>
-      </c>
-      <c r="B161">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>588</v>
-      </c>
-      <c r="B162">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>560</v>
-      </c>
-      <c r="B163">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>80</v>
-      </c>
-      <c r="B164">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>217</v>
-      </c>
-      <c r="B165">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>348</v>
-      </c>
-      <c r="B166">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>213</v>
-      </c>
-      <c r="B167">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>708</v>
-      </c>
-      <c r="B168">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>384</v>
-      </c>
-      <c r="B170">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>813</v>
-      </c>
-      <c r="B171">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>25</v>
-      </c>
-      <c r="B172">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>510</v>
-      </c>
-      <c r="B174">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>735</v>
-      </c>
-      <c r="B175">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>305</v>
-      </c>
-      <c r="B176">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>773</v>
-      </c>
-      <c r="B177">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>373</v>
-      </c>
-      <c r="B178">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>216</v>
-      </c>
-      <c r="B179">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>141</v>
-      </c>
-      <c r="B180">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>447</v>
-      </c>
-      <c r="B181">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>297</v>
-      </c>
-      <c r="B182">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>152</v>
-      </c>
-      <c r="B183">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>642</v>
-      </c>
-      <c r="B184">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>626</v>
-      </c>
-      <c r="B185">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>557</v>
-      </c>
-      <c r="B186">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>420</v>
-      </c>
-      <c r="B187">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>44</v>
-      </c>
-      <c r="B188">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>783</v>
-      </c>
-      <c r="B189">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>534</v>
-      </c>
-      <c r="B190">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>552</v>
-      </c>
-      <c r="B191">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>243</v>
-      </c>
-      <c r="B192">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>202</v>
-      </c>
-      <c r="B193">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>578</v>
-      </c>
-      <c r="B194">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>134</v>
-      </c>
-      <c r="B195">
-        <v>193</v>
-      </c>
-    </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
         <v>728</v>
       </c>
-      <c r="B196">
-        <v>194</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A247">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B247">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32145,7 +32145,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
